--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3424.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3424.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.012872427555547</v>
+        <v>1.383505821228027</v>
       </c>
       <c r="B1">
-        <v>1.467636795394931</v>
+        <v>2.61494779586792</v>
       </c>
       <c r="C1">
-        <v>2.893359279688998</v>
+        <v>6.193362236022949</v>
       </c>
       <c r="D1">
-        <v>5.399884226592627</v>
+        <v>2.344566822052002</v>
       </c>
       <c r="E1">
-        <v>1.847824341888492</v>
+        <v>1.211041927337646</v>
       </c>
     </row>
   </sheetData>
